--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lefte\Documents\GitHub\parallhla-2017\ΜΕΤΡΗΣΕΙΣ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aggel\Desktop\DIT\PARALLHLA\parallhla 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="0" windowWidth="20880" windowHeight="8415"/>
+    <workbookView xWindow="975" yWindow="0" windowWidth="15195" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Time(secs)</t>
   </si>
@@ -33,15 +33,6 @@
   </si>
   <si>
     <t>Processses</t>
-  </si>
-  <si>
-    <t>Steps = 100</t>
-  </si>
-  <si>
-    <t>Steps = 500</t>
-  </si>
-  <si>
-    <t>Steps = 1000</t>
   </si>
   <si>
     <t>Παρατηρούμε διπλασιασμό τιμών σε σχέση με τα προηγούμενα αποτελεσματα</t>
@@ -55,6 +46,15 @@
   <si>
     <t>MPI_CHAR
   This is the traditional ASCII character that is numbered by integers between 0 and 127.</t>
+  </si>
+  <si>
+    <t>Generations = 1000</t>
+  </si>
+  <si>
+    <t>Generations = 500</t>
+  </si>
+  <si>
+    <t>Generations = 100</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,34 +400,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>240</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+      <c r="E2">
+        <v>960</v>
+      </c>
+      <c r="F2">
+        <v>1440</v>
+      </c>
+      <c r="G2">
+        <v>2880</v>
+      </c>
+      <c r="H2">
+        <v>3600</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>240</v>
-      </c>
-      <c r="D3">
-        <v>600</v>
-      </c>
-      <c r="E3">
-        <v>960</v>
-      </c>
-      <c r="F3">
-        <v>1440</v>
-      </c>
-      <c r="G3">
-        <v>2880</v>
-      </c>
-      <c r="H3">
-        <v>3600</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -450,7 +458,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="3">
@@ -473,7 +481,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="A6">
         <v>9</v>
       </c>
       <c r="C6" s="3">
@@ -496,7 +504,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="A7">
         <v>16</v>
       </c>
       <c r="C7" s="3">
@@ -519,7 +527,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="A8">
         <v>25</v>
       </c>
       <c r="C8" s="3">
@@ -559,12 +567,12 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -723,12 +731,12 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -879,20 +887,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -912,7 +916,7 @@
     </row>
     <row r="46" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="15195" windowHeight="8370"/>
+    <workbookView xWindow="1935" yWindow="0" windowWidth="15195" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Time(secs)</t>
   </si>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>Tα παραπάνω αποτελούν πραγματικές μετρήσεις το ίδιο βράδυ ώστε να μην υπάρχει κίνηση</t>
-  </si>
-  <si>
-    <t>MPI_CHAR
-  This is the traditional ASCII character that is numbered by integers between 0 and 127.</t>
   </si>
   <si>
     <t>Generations = 1000</t>
@@ -384,7 +380,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +396,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -572,7 +568,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -736,7 +732,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -914,10 +910,8 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="0" windowWidth="15195" windowHeight="8370"/>
+    <workbookView xWindow="2895" yWindow="0" windowWidth="15195" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Time(secs)</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Generations = 100</t>
+  </si>
+  <si>
+    <t>Generations</t>
   </si>
 </sst>
 </file>
@@ -379,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,24 +889,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>600</v>
+      </c>
+    </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>960</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1440</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2880</v>
+      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3600</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="0" windowWidth="15195" windowHeight="8370"/>
+    <workbookView xWindow="3855" yWindow="0" windowWidth="15195" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Time(secs)</t>
   </si>
@@ -54,6 +54,60 @@
   </si>
   <si>
     <t>Generations</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>Cuda</t>
+  </si>
+  <si>
+    <t>0.001767</t>
+  </si>
+  <si>
+    <t>0.008664</t>
+  </si>
+  <si>
+    <t>0.017527</t>
+  </si>
+  <si>
+    <t>0.072489</t>
+  </si>
+  <si>
+    <t>0.036591</t>
+  </si>
+  <si>
+    <t>0.007434</t>
+  </si>
+  <si>
+    <t>0.018129</t>
+  </si>
+  <si>
+    <t>0.090057</t>
+  </si>
+  <si>
+    <t>0.179443</t>
+  </si>
+  <si>
+    <t>0.395824</t>
+  </si>
+  <si>
+    <t>0.198267</t>
+  </si>
+  <si>
+    <t>0.039747</t>
+  </si>
+  <si>
+    <t>0.154231</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.770277</t>
+  </si>
+  <si>
+    <t>0.243256</t>
+  </si>
+  <si>
+    <t>0.585272</t>
   </si>
 </sst>
 </file>
@@ -93,13 +147,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,22 +494,22 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0.17808499999999999</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1.107029</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.1041620000000001</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>6.356916</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>25.367808</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>39.641305000000003</v>
       </c>
     </row>
@@ -460,22 +517,22 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>6.4367999999999995E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.30788599999999999</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>0.30257200000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>1.6666019999999999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>6.5971200000000003</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>10.285026999999999</v>
       </c>
     </row>
@@ -483,22 +540,22 @@
       <c r="A6">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>0.55098100000000005</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.30681700000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>0.40891499999999997</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1.486324</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>5.888064</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>8.4378609999999998</v>
       </c>
     </row>
@@ -506,22 +563,22 @@
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.52659699999999998</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.33862900000000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.39836700000000003</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.84370599999999996</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>3.387642</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>5.4408560000000001</v>
       </c>
     </row>
@@ -529,40 +586,40 @@
       <c r="A8">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.41152</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>0.30420700000000001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.35547299999999998</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>0.545852</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>2.2475260000000001</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>3.3060659999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -609,22 +666,22 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.83743800000000002</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>5.2071339999999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>13.289617</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>29.827795999999999</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>119.19008700000001</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>186.11117200000001</v>
       </c>
     </row>
@@ -632,22 +689,22 @@
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.294541</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>1.515628</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>3.4781620000000002</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>7.7051800000000004</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>30.497924000000001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>47.356651999999997</v>
       </c>
     </row>
@@ -655,22 +712,22 @@
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.46586300000000003</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>1.5878319999999999</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>3.22295</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>6.8877050000000004</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>26.385261</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>40.521880000000003</v>
       </c>
     </row>
@@ -678,22 +735,22 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.57897799999999999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>1.2696609999999999</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>2.290667</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>3.807925</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>15.48779</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>23.206275000000002</v>
       </c>
     </row>
@@ -701,32 +758,32 @@
       <c r="A19">
         <v>25</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.61292100000000005</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>1.0694539999999999</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>1.5907089999999999</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>2.8251110000000001</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>10.005677</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>14.880965</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -773,22 +830,22 @@
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>1.637283</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>10.17953</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>26.07029</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>58.585816999999999</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>233.57284200000001</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>365.36439000000001</v>
       </c>
     </row>
@@ -796,22 +853,22 @@
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>0.59331</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>2.7445750000000002</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>6.7967279999999999</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>15.062400999999999</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>59.547137999999997</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>92.556897000000006</v>
       </c>
     </row>
@@ -819,22 +876,22 @@
       <c r="A28">
         <v>9</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1.1561140000000001</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>2.9815900000000002</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>6.3664509999999996</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>13.707803</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>52.607337000000001</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>79.068915000000004</v>
       </c>
     </row>
@@ -842,22 +899,22 @@
       <c r="A29">
         <v>16</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>1.059474</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1.998299</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>4.0780380000000003</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>7.91873</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>30.111418</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>45.395386999999999</v>
       </c>
     </row>
@@ -865,22 +922,22 @@
       <c r="A30">
         <v>25</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>1.340743</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>1.852978</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>3.17422</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>5.5308070000000003</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>19.519974000000001</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>29.670601000000001</v>
       </c>
     </row>
@@ -889,7 +946,15 @@
         <v>5</v>
       </c>
     </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
@@ -912,16 +977,43 @@
       <c r="A37">
         <v>240</v>
       </c>
+      <c r="C37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2795494</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4091166</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>600</v>
       </c>
+      <c r="C38" s="1">
+        <v>1807819</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9518319</v>
+      </c>
+      <c r="E38" s="1">
+        <v>20330668</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>960</v>
       </c>
+      <c r="C39" s="1">
+        <v>3376486</v>
+      </c>
+      <c r="D39" s="1">
+        <v>24425438</v>
+      </c>
+      <c r="E39" s="1">
+        <v>43222348</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -930,6 +1022,15 @@
       <c r="A40">
         <v>1440</v>
       </c>
+      <c r="C40" s="1">
+        <v>9345380</v>
+      </c>
+      <c r="D40" s="1">
+        <v>51603554</v>
+      </c>
+      <c r="E40" s="1">
+        <v>97115033</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -937,6 +1038,15 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2880</v>
+      </c>
+      <c r="C41" s="1">
+        <v>40638531</v>
+      </c>
+      <c r="D41" s="1">
+        <v>200035467</v>
+      </c>
+      <c r="E41" s="1">
+        <v>406322728</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -947,14 +1057,151 @@
       <c r="A42">
         <v>3600</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="C42" s="1">
+        <v>65155486</v>
+      </c>
+      <c r="D42" s="1">
+        <v>319610532</v>
+      </c>
+      <c r="E42" s="1">
+        <v>633947792</v>
+      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>500</v>
+      </c>
+      <c r="E46">
+        <v>1000</v>
+      </c>
+      <c r="F46">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>240</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1733293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>600</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7215022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>960</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="3">
+        <v>17920060</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1440</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="3">
+        <v>39571133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2880</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1540560</v>
+      </c>
+      <c r="F52" s="3">
+        <v>154026219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3600</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1216621</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2433578</v>
+      </c>
+      <c r="F53" s="3">
+        <v>243364028</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="0" windowWidth="15195" windowHeight="8370"/>
+    <workbookView xWindow="4815" yWindow="0" windowWidth="15195" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Time(secs)</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>0.585272</t>
+  </si>
+  <si>
+    <t>Speedup στα 1000 Generations</t>
+  </si>
+  <si>
+    <t>Gens=1000</t>
+  </si>
+  <si>
+    <t>Efficiency στα 1000 Generations</t>
+  </si>
+  <si>
+    <t>E=Tspeedup/Nprocesses</t>
+  </si>
+  <si>
+    <t>S=Tserial/Tparal</t>
   </si>
 </sst>
 </file>
@@ -437,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,260 +961,616 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>240</v>
+      </c>
+      <c r="D35">
+        <v>600</v>
+      </c>
+      <c r="E35">
+        <v>960</v>
+      </c>
+      <c r="F35">
+        <v>1440</v>
+      </c>
+      <c r="G35">
+        <v>2880</v>
+      </c>
+      <c r="H35">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2">
+        <f>C26/C27</f>
+        <v>2.7595742529200589</v>
+      </c>
+      <c r="D38" s="2">
+        <f>D26/D27</f>
+        <v>3.708964047256861</v>
+      </c>
+      <c r="E38" s="2">
+        <f>E26/E27</f>
+        <v>3.835711830751503</v>
+      </c>
+      <c r="F38" s="2">
+        <f>F26/F27</f>
+        <v>3.8895403860247777</v>
+      </c>
+      <c r="G38" s="2">
+        <f>G26/G27</f>
+        <v>3.9224864509861082</v>
+      </c>
+      <c r="H38" s="2">
+        <f>H26/H27</f>
+        <v>3.9474572057012671</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2">
+        <f>C26/C28</f>
+        <v>1.4161951157065824</v>
+      </c>
+      <c r="D39" s="2">
+        <f>D26/D28</f>
+        <v>3.4141280323585734</v>
+      </c>
+      <c r="E39" s="2">
+        <f>E26/E28</f>
+        <v>4.0949486613499424</v>
+      </c>
+      <c r="F39" s="2">
+        <f>F26/F28</f>
+        <v>4.2739027545114263</v>
+      </c>
+      <c r="G39" s="2">
+        <f>G26/G28</f>
+        <v>4.4399290159849754</v>
+      </c>
+      <c r="H39" s="2">
+        <f>H26/H28</f>
+        <v>4.6208347490287425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <f>C26/C29</f>
+        <v>1.5453734589050794</v>
+      </c>
+      <c r="D40" s="2">
+        <f>D26/D29</f>
+        <v>5.0940975299492219</v>
+      </c>
+      <c r="E40" s="2">
+        <f>E26/E29</f>
+        <v>6.3928511700969919</v>
+      </c>
+      <c r="F40" s="2">
+        <f>F26/F29</f>
+        <v>7.3983854734281884</v>
+      </c>
+      <c r="G40" s="2">
+        <f>G26/G29</f>
+        <v>7.7569525951916312</v>
+      </c>
+      <c r="H40" s="2">
+        <f>H26/H29</f>
+        <v>8.0484915791113316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2">
+        <f>C26/C30</f>
+        <v>1.2211758703942515</v>
+      </c>
+      <c r="D41" s="2">
+        <f>D26/D30</f>
+        <v>5.4936054286667186</v>
+      </c>
+      <c r="E41" s="2">
+        <f>E26/E30</f>
+        <v>8.2131326751138864</v>
+      </c>
+      <c r="F41" s="2">
+        <f>F26/F30</f>
+        <v>10.592634492579473</v>
+      </c>
+      <c r="G41" s="2">
+        <f>G26/G30</f>
+        <v>11.965837761874068</v>
+      </c>
+      <c r="H41" s="2">
+        <f>H26/H30</f>
+        <v>12.314020535007026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>240</v>
+      </c>
+      <c r="D45">
+        <v>600</v>
+      </c>
+      <c r="E45">
+        <v>960</v>
+      </c>
+      <c r="F45">
+        <v>1440</v>
+      </c>
+      <c r="G45">
+        <v>2880</v>
+      </c>
+      <c r="H45">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2">
+        <f>C38/A48</f>
+        <v>0.68989356323001472</v>
+      </c>
+      <c r="D48" s="2">
+        <f>D38/A48</f>
+        <v>0.92724101181421525</v>
+      </c>
+      <c r="E48" s="2">
+        <f>E38/A48</f>
+        <v>0.95892795768787575</v>
+      </c>
+      <c r="F48" s="2">
+        <f>F38/A48</f>
+        <v>0.97238509650619442</v>
+      </c>
+      <c r="G48" s="2">
+        <f>G38/A48</f>
+        <v>0.98062161274652704</v>
+      </c>
+      <c r="H48" s="2">
+        <f>H38/A48</f>
+        <v>0.98686430142531678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2">
+        <f>C39/A49</f>
+        <v>0.15735501285628695</v>
+      </c>
+      <c r="D49" s="2">
+        <f>D39/A49</f>
+        <v>0.37934755915095258</v>
+      </c>
+      <c r="E49" s="2">
+        <f>E39/A49</f>
+        <v>0.45499429570554917</v>
+      </c>
+      <c r="F49" s="2">
+        <f>F39/A49</f>
+        <v>0.47487808383460295</v>
+      </c>
+      <c r="G49" s="2">
+        <f>G39/A49</f>
+        <v>0.4933254462205528</v>
+      </c>
+      <c r="H49" s="2">
+        <f>H39/A49</f>
+        <v>0.51342608322541583</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2">
+        <f>C40/A50</f>
+        <v>9.6585841181567461E-2</v>
+      </c>
+      <c r="D50" s="2">
+        <f>D40/A50</f>
+        <v>0.31838109562182637</v>
+      </c>
+      <c r="E50" s="2">
+        <f>E40/A50</f>
+        <v>0.39955319813106199</v>
+      </c>
+      <c r="F50" s="2">
+        <f>F40/A50</f>
+        <v>0.46239909208926178</v>
+      </c>
+      <c r="G50" s="2">
+        <f>G40/A50</f>
+        <v>0.48480953719947695</v>
+      </c>
+      <c r="H50" s="2">
+        <f>H40/A50</f>
+        <v>0.50303072369445823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="C51" s="2">
+        <f>C41/A51</f>
+        <v>4.884703481577006E-2</v>
+      </c>
+      <c r="D51" s="2">
+        <f>D41/A51</f>
+        <v>0.21974421714666875</v>
+      </c>
+      <c r="E51" s="2">
+        <f>E41/A51</f>
+        <v>0.32852530700455546</v>
+      </c>
+      <c r="F51" s="2">
+        <f>F41/A51</f>
+        <v>0.4237053797031789</v>
+      </c>
+      <c r="G51" s="2">
+        <f>G41/A51</f>
+        <v>0.47863351047496272</v>
+      </c>
+      <c r="H51" s="2">
+        <f>H41/A51</f>
+        <v>0.49256082140028107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>0</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C35">
+      <c r="C57">
         <v>100</v>
       </c>
-      <c r="D35">
+      <c r="D57">
         <v>500</v>
       </c>
-      <c r="E35">
+      <c r="E57">
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>240</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D59" s="1">
         <v>2795494</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E59" s="1">
         <v>4091166</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>600</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C60" s="1">
         <v>1807819</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D60" s="1">
         <v>9518319</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E60" s="1">
         <v>20330668</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>960</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C61" s="1">
         <v>3376486</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D61" s="1">
         <v>24425438</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E61" s="1">
         <v>43222348</v>
       </c>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>1440</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C62" s="1">
         <v>9345380</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D62" s="1">
         <v>51603554</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E62" s="1">
         <v>97115033</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>2880</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C63" s="1">
         <v>40638531</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D63" s="1">
         <v>200035467</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E63" s="1">
         <v>406322728</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>3600</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C64" s="1">
         <v>65155486</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D64" s="1">
         <v>319610532</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E64" s="1">
         <v>633947792</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>0</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B68" t="s">
         <v>9</v>
       </c>
-      <c r="C46">
+      <c r="C68">
         <v>100</v>
       </c>
-      <c r="D46">
+      <c r="D68">
         <v>500</v>
       </c>
-      <c r="E46">
+      <c r="E68">
         <v>1000</v>
       </c>
-      <c r="F46">
+      <c r="F68">
         <v>100000</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>240</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F70" s="3">
         <v>1733293</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>600</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F71" s="3">
         <v>7215022</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>960</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F72" s="3">
         <v>17920060</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>1440</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F73" s="3">
         <v>39571133</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>2880</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E74" s="3">
         <v>1540560</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F74" s="3">
         <v>154026219</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>3600</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D75" s="3">
         <v>1216621</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E75" s="3">
         <v>2433578</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F75" s="3">
         <v>243364028</v>
       </c>
     </row>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17870"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aggel\Desktop\DIT\PARALLHLA\parallhla 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lefte\Documents\GitHub\parallhla-2017\parallhla-2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Time(secs)</t>
   </si>
@@ -62,54 +62,6 @@
     <t>Cuda</t>
   </si>
   <si>
-    <t>0.001767</t>
-  </si>
-  <si>
-    <t>0.008664</t>
-  </si>
-  <si>
-    <t>0.017527</t>
-  </si>
-  <si>
-    <t>0.072489</t>
-  </si>
-  <si>
-    <t>0.036591</t>
-  </si>
-  <si>
-    <t>0.007434</t>
-  </si>
-  <si>
-    <t>0.018129</t>
-  </si>
-  <si>
-    <t>0.090057</t>
-  </si>
-  <si>
-    <t>0.179443</t>
-  </si>
-  <si>
-    <t>0.395824</t>
-  </si>
-  <si>
-    <t>0.198267</t>
-  </si>
-  <si>
-    <t>0.039747</t>
-  </si>
-  <si>
-    <t>0.154231</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.770277</t>
-  </si>
-  <si>
-    <t>0.243256</t>
-  </si>
-  <si>
-    <t>0.585272</t>
-  </si>
-  <si>
     <t>Speedup στα 1000 Generations</t>
   </si>
   <si>
@@ -123,6 +75,15 @@
   </si>
   <si>
     <t>S=Tserial/Tparal</t>
+  </si>
+  <si>
+    <t>CUDA/MPI</t>
+  </si>
+  <si>
+    <t>OPENMP/MPI</t>
+  </si>
+  <si>
+    <t>GENERATIONS = 1000</t>
   </si>
 </sst>
 </file>
@@ -162,14 +123,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -452,19 +410,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -963,15 +921,15 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1028,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="2">
-        <f>C26/C27</f>
+        <f t="shared" ref="C38:H38" si="0">C26/C27</f>
         <v>2.7595742529200589</v>
       </c>
       <c r="D38" s="2">
@@ -1036,19 +994,19 @@
         <v>3.708964047256861</v>
       </c>
       <c r="E38" s="2">
-        <f>E26/E27</f>
+        <f t="shared" si="0"/>
         <v>3.835711830751503</v>
       </c>
       <c r="F38" s="2">
-        <f>F26/F27</f>
+        <f t="shared" si="0"/>
         <v>3.8895403860247777</v>
       </c>
       <c r="G38" s="2">
-        <f>G26/G27</f>
+        <f t="shared" si="0"/>
         <v>3.9224864509861082</v>
       </c>
       <c r="H38" s="2">
-        <f>H26/H27</f>
+        <f t="shared" si="0"/>
         <v>3.9474572057012671</v>
       </c>
     </row>
@@ -1057,7 +1015,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="2">
-        <f>C26/C28</f>
+        <f t="shared" ref="C39:H39" si="1">C26/C28</f>
         <v>1.4161951157065824</v>
       </c>
       <c r="D39" s="2">
@@ -1065,19 +1023,19 @@
         <v>3.4141280323585734</v>
       </c>
       <c r="E39" s="2">
-        <f>E26/E28</f>
+        <f t="shared" si="1"/>
         <v>4.0949486613499424</v>
       </c>
       <c r="F39" s="2">
-        <f>F26/F28</f>
+        <f t="shared" si="1"/>
         <v>4.2739027545114263</v>
       </c>
       <c r="G39" s="2">
-        <f>G26/G28</f>
+        <f t="shared" si="1"/>
         <v>4.4399290159849754</v>
       </c>
       <c r="H39" s="2">
-        <f>H26/H28</f>
+        <f t="shared" si="1"/>
         <v>4.6208347490287425</v>
       </c>
     </row>
@@ -1086,27 +1044,27 @@
         <v>16</v>
       </c>
       <c r="C40" s="2">
-        <f>C26/C29</f>
+        <f t="shared" ref="C40:H40" si="2">C26/C29</f>
         <v>1.5453734589050794</v>
       </c>
       <c r="D40" s="2">
-        <f>D26/D29</f>
+        <f t="shared" si="2"/>
         <v>5.0940975299492219</v>
       </c>
       <c r="E40" s="2">
-        <f>E26/E29</f>
+        <f t="shared" si="2"/>
         <v>6.3928511700969919</v>
       </c>
       <c r="F40" s="2">
-        <f>F26/F29</f>
+        <f t="shared" si="2"/>
         <v>7.3983854734281884</v>
       </c>
       <c r="G40" s="2">
-        <f>G26/G29</f>
+        <f t="shared" si="2"/>
         <v>7.7569525951916312</v>
       </c>
       <c r="H40" s="2">
-        <f>H26/H29</f>
+        <f t="shared" si="2"/>
         <v>8.0484915791113316</v>
       </c>
     </row>
@@ -1115,41 +1073,41 @@
         <v>25</v>
       </c>
       <c r="C41" s="2">
-        <f>C26/C30</f>
+        <f t="shared" ref="C41:H41" si="3">C26/C30</f>
         <v>1.2211758703942515</v>
       </c>
       <c r="D41" s="2">
-        <f>D26/D30</f>
+        <f t="shared" si="3"/>
         <v>5.4936054286667186</v>
       </c>
       <c r="E41" s="2">
-        <f>E26/E30</f>
+        <f t="shared" si="3"/>
         <v>8.2131326751138864</v>
       </c>
       <c r="F41" s="2">
-        <f>F26/F30</f>
+        <f t="shared" si="3"/>
         <v>10.592634492579473</v>
       </c>
       <c r="G41" s="2">
-        <f>G26/G30</f>
+        <f t="shared" si="3"/>
         <v>11.965837761874068</v>
       </c>
       <c r="H41" s="2">
-        <f>H26/H30</f>
+        <f t="shared" si="3"/>
         <v>12.314020535007026</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -1348,42 +1306,42 @@
       <c r="A59">
         <v>240</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="1">
-        <v>2795494</v>
-      </c>
-      <c r="E59" s="1">
-        <v>4091166</v>
+      <c r="C59" s="3">
+        <v>0.58527200000000001</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2.7954940000000001</v>
+      </c>
+      <c r="E59" s="2">
+        <v>4.0911660000000003</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>600</v>
       </c>
-      <c r="C60" s="1">
-        <v>1807819</v>
-      </c>
-      <c r="D60" s="1">
-        <v>9518319</v>
-      </c>
-      <c r="E60" s="1">
-        <v>20330668</v>
+      <c r="C60" s="2">
+        <v>1.8078190000000001</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9.518319</v>
+      </c>
+      <c r="E60" s="2">
+        <v>20.330667999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>960</v>
       </c>
-      <c r="C61" s="1">
-        <v>3376486</v>
-      </c>
-      <c r="D61" s="1">
-        <v>24425438</v>
-      </c>
-      <c r="E61" s="1">
-        <v>43222348</v>
+      <c r="C61" s="2">
+        <v>3.3764859999999999</v>
+      </c>
+      <c r="D61" s="2">
+        <v>24.425438</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43.222347999999997</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -1393,14 +1351,14 @@
       <c r="A62">
         <v>1440</v>
       </c>
-      <c r="C62" s="1">
-        <v>9345380</v>
-      </c>
-      <c r="D62" s="1">
-        <v>51603554</v>
-      </c>
-      <c r="E62" s="1">
-        <v>97115033</v>
+      <c r="C62" s="2">
+        <v>9.3453800000000005</v>
+      </c>
+      <c r="D62" s="2">
+        <v>51.603554000000003</v>
+      </c>
+      <c r="E62" s="2">
+        <v>97.115032999999997</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -1410,14 +1368,14 @@
       <c r="A63">
         <v>2880</v>
       </c>
-      <c r="C63" s="1">
-        <v>40638531</v>
-      </c>
-      <c r="D63" s="1">
-        <v>200035467</v>
-      </c>
-      <c r="E63" s="1">
-        <v>406322728</v>
+      <c r="C63" s="2">
+        <v>40.638531</v>
+      </c>
+      <c r="D63" s="2">
+        <v>200.03546700000001</v>
+      </c>
+      <c r="E63" s="2">
+        <v>406.32272799999998</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1428,14 +1386,14 @@
       <c r="A64">
         <v>3600</v>
       </c>
-      <c r="C64" s="1">
-        <v>65155486</v>
-      </c>
-      <c r="D64" s="1">
-        <v>319610532</v>
-      </c>
-      <c r="E64" s="1">
-        <v>633947792</v>
+      <c r="C64" s="2">
+        <v>65.155485999999996</v>
+      </c>
+      <c r="D64" s="2">
+        <v>319.61053199999998</v>
+      </c>
+      <c r="E64" s="2">
+        <v>633.94779200000005</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1476,102 +1434,236 @@
       <c r="A70">
         <v>240</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>14</v>
+      <c r="C70" s="3">
+        <v>1.7669999999999999E-3</v>
+      </c>
+      <c r="D70" s="3">
+        <v>8.6639999999999998E-3</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1.7527000000000001E-2</v>
       </c>
       <c r="F70" s="3">
-        <v>1733293</v>
+        <v>1.733293</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>600</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>15</v>
+      <c r="C71" s="3">
+        <v>7.4339999999999996E-3</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3.6590999999999999E-2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7.2488999999999998E-2</v>
       </c>
       <c r="F71" s="3">
-        <v>7215022</v>
+        <v>7.2150220000000003</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>960</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>20</v>
+      <c r="C72" s="3">
+        <v>1.8128999999999999E-2</v>
+      </c>
+      <c r="D72" s="3">
+        <v>9.0056999999999998E-2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.17944299999999999</v>
       </c>
       <c r="F72" s="3">
-        <v>17920060</v>
+        <v>17.920059999999999</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1440</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>21</v>
+      <c r="C73" s="3">
+        <v>3.9746999999999998E-2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.198267</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.39582400000000001</v>
       </c>
       <c r="F73" s="3">
-        <v>39571133</v>
+        <v>39.571133000000003</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2880</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>25</v>
+      <c r="C74" s="3">
+        <v>0.15423100000000001</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.77027699999999999</v>
       </c>
       <c r="E74" s="3">
-        <v>1540560</v>
+        <v>1.5405599999999999</v>
       </c>
       <c r="F74" s="3">
-        <v>154026219</v>
+        <v>154.026219</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3600</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>26</v>
+      <c r="C75" s="3">
+        <v>0.243256</v>
       </c>
       <c r="D75" s="3">
-        <v>1216621</v>
+        <v>1.216621</v>
       </c>
       <c r="E75" s="3">
-        <v>2433578</v>
+        <v>2.4335779999999998</v>
       </c>
       <c r="F75" s="3">
-        <v>243364028</v>
+        <v>243.36402799999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>240</v>
+      </c>
+      <c r="B79">
+        <f>E70/C30</f>
+        <v>1.3072602280974057E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>600</v>
+      </c>
+      <c r="B80">
+        <f>E71/D30</f>
+        <v>3.9120270181297351E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>960</v>
+      </c>
+      <c r="B81">
+        <f>E72/E30</f>
+        <v>5.6531368336158169E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1440</v>
+      </c>
+      <c r="B82">
+        <f>E73/F30</f>
+        <v>7.156713296992645E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2880</v>
+      </c>
+      <c r="B83" s="2">
+        <f>E74/G30</f>
+        <v>7.8922236269372073E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3600</v>
+      </c>
+      <c r="B84">
+        <f>E75/H30</f>
+        <v>8.2019841795587481E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>240</v>
+      </c>
+      <c r="B87">
+        <f>E59/C30</f>
+        <v>3.0514170128055862</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>600</v>
+      </c>
+      <c r="B88" s="2">
+        <f>E60/D30</f>
+        <v>10.971888495168319</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>960</v>
+      </c>
+      <c r="B89" s="2">
+        <f>E61/E30</f>
+        <v>13.616683153656645</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1440</v>
+      </c>
+      <c r="B90">
+        <f>E62/F30</f>
+        <v>17.558926391754401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2880</v>
+      </c>
+      <c r="B91">
+        <f>E63/G30</f>
+        <v>20.815741250475025</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>3600</v>
+      </c>
+      <c r="B92">
+        <f>E64/H30</f>
+        <v>21.366193155305481</v>
       </c>
     </row>
   </sheetData>
